--- a/xlsx/地球暖化_intext.xlsx
+++ b/xlsx/地球暖化_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="535">
   <si>
     <t>地球暖化</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>氣候變遷</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_地球暖化</t>
+    <t>气候变迁</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_地球暖化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83</t>
@@ -53,31 +53,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>溫室效應</t>
+    <t>温室效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>溫度</t>
+    <t>温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>氣候變化</t>
+    <t>气候变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>公地悲劇</t>
+    <t>公地悲剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>效應</t>
+    <t>效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96%E6%95%88%E5%BA%94</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓州大學</t>
+    <t>宾州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E9%85%B8%E9%88%A3</t>
   </si>
   <si>
-    <t>碳酸鈣</t>
+    <t>碳酸钙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%94</t>
@@ -209,13 +209,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%BA%A6</t>
   </si>
   <si>
-    <t>温度</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E7%AB%AF%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極端氣候</t>
+    <t>极端气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%B0%B4</t>
@@ -227,25 +224,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%B1%E7%81%BD</t>
   </si>
   <si>
-    <t>旱災</t>
+    <t>旱灾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%B5%AA</t>
   </si>
   <si>
-    <t>熱浪</t>
+    <t>热浪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8</t>
   </si>
   <si>
-    <t>颶風</t>
+    <t>飓风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>龍捲風</t>
+    <t>龙捲风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A4%A9</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E8%A8%80</t>
   </si>
   <si>
-    <t>預言</t>
+    <t>预言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E6%B5%81%E5%B1%82</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E6%BA%AB%E6%9A%96%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀溫暖時期</t>
+    <t>中世纪温暖时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%86%B0%E6%9C%9F</t>
@@ -293,25 +290,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E9%81%94%E5%BE%B7%E5%A4%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>戈達德太空研究所</t>
+    <t>戈达德太空研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%A3%E8%B1%A1%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界氣象組織</t>
+    <t>世界气象组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B0%A3%E5%80%99%E7%A0%94%E7%A9%B6%E5%96%AE%E4%BD%8D</t>
   </si>
   <si>
-    <t>英國氣候研究單位</t>
+    <t>英国气候研究单位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>熱島現象</t>
+    <t>热岛现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E8%AB%BE</t>
   </si>
   <si>
-    <t>格羅諾</t>
+    <t>格罗诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
@@ -377,13 +374,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E8%98%AD%E7%B8%A3</t>
   </si>
   <si>
-    <t>宜蘭縣</t>
+    <t>宜兰县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BC%E7%8E%89%E7%B8%A3</t>
   </si>
   <si>
-    <t>埼玉縣</t>
+    <t>埼玉县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%8A%E8%B0%B7%E5%B8%82</t>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD%E7%A7%91%E7%B6%AD%E5%A5%87%E5%BE%AA%E7%92%B0</t>
   </si>
   <si>
-    <t>米蘭科維奇循環</t>
+    <t>米兰科维奇循环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>冰河時期</t>
+    <t>冰河时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E6%B4%BB%E5%8A%A8</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E8%AD%98</t>
   </si>
   <si>
-    <t>共識</t>
+    <t>共识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%A6%88</t>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>太陽輻射</t>
+    <t>太阳辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B9%E7%A9%8D%E7%86%B1%E5%AE%B9</t>
   </si>
   <si>
-    <t>容積熱容</t>
+    <t>容积热容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99</t>
@@ -467,19 +464,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>熱輻射</t>
+    <t>热辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96%E5%8B%A2%E8%83%BD</t>
   </si>
   <si>
-    <t>全球暖化勢能</t>
+    <t>全球暖化势能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%90%AC%E5%88%86%E7%8E%87</t>
   </si>
   <si>
-    <t>百萬分率</t>
+    <t>百万分率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%8D%E4%BC%90%E6%A3%AE%E6%9E%97</t>
@@ -497,13 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%9F%BB</t>
   </si>
   <si>
-    <t>白蟻</t>
+    <t>白蚁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E5%B0%88%E9%96%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>政府間氣候變化專門委員會</t>
+    <t>政府间气候变化专门委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E4%BA%9A%E6%B0%AE</t>
@@ -533,19 +530,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E6%BA%B6%E8%86%A0</t>
   </si>
   <si>
-    <t>氣溶膠</t>
+    <t>气溶胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8_(%E6%9C%9F%E5%88%8A)</t>
   </si>
   <si>
-    <t>科學 (期刊)</t>
+    <t>科学 (期刊)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖地牙哥分校</t>
+    <t>加利福尼亚大学圣地牙哥分校</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sami_Solanki</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E6%9A%96%E5%8C%96%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>地球暖化爭議</t>
+    <t>地球暖化争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -575,25 +572,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E5%8D%94%E8%AD%B0%E6%9B%B8</t>
   </si>
   <si>
-    <t>京都協議書</t>
+    <t>京都协议书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>西方社會</t>
+    <t>西方社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philip_Cooney</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%98%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA</t>
   </si>
   <si>
-    <t>風險</t>
+    <t>风险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90</t>
@@ -659,13 +656,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%91%E6%96%AF%E5%B1%B1</t>
   </si>
   <si>
-    <t>阿爾卑斯山</t>
+    <t>阿尔卑斯山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%90%8A%E5%A5%87%E5%86%B0%E5%B7%9D</t>
   </si>
   <si>
-    <t>阿萊奇冰川</t>
+    <t>阿莱奇冰川</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
   </si>
   <si>
-    <t>格陵蘭</t>
+    <t>格陵兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D</t>
@@ -701,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85</t>
   </si>
   <si>
-    <t>傳染病</t>
+    <t>传染病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E5%8C%96</t>
@@ -773,13 +770,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>地區</t>
+    <t>地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A5%A5%E8%8D%92</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%9C%B0</t>
   </si>
   <si>
-    <t>農地</t>
+    <t>农地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E5%8A%9B</t>
@@ -845,13 +842,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%9E%8D%E5%90%88</t>
@@ -863,13 +860,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>純電動車</t>
+    <t>纯电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E7%A8%8E</t>
@@ -881,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E8%AD%B0%E5%AE%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>京都議定書</t>
+    <t>京都议定书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E7%A7%91%E6%8A%80</t>
@@ -899,19 +896,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96%E5%90%A6%E5%AE%9A%E8%AA%AA</t>
   </si>
   <si>
-    <t>全球暖化否定說</t>
+    <t>全球暖化否定说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96%E6%B0%91%E8%AA%BF%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>公共政策民調基金會</t>
+    <t>公共政策民调基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A0%BC%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -941,25 +938,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國副總統</t>
+    <t>美国副总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%C2%B7%E9%AB%98%E7%88%BE</t>
   </si>
   <si>
-    <t>艾爾·高爾</t>
+    <t>艾尔·高尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
   </si>
   <si>
-    <t>納粹黨</t>
+    <t>纳粹党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -971,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>澳洲總理</t>
+    <t>澳洲总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%C2%B7%E9%98%BF%E5%8D%9A%E7%89%B9</t>
@@ -1007,13 +1004,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E7%B6%B1%E8%A6%81%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>聯合國氣候變化綱要公約</t>
+    <t>联合国气候变化纲要公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE%E8%AD%B0%E5%AE%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>蒙特利爾議定書</t>
+    <t>蒙特利尔议定书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8E%98%E8%B7%AF%E7%BA%BF%E5%9B%BE</t>
@@ -1031,13 +1028,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>巴黎協定</t>
+    <t>巴黎协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96%E5%A4%A7%E9%A8%99%E5%B1%80</t>
   </si>
   <si>
-    <t>全球暖化大騙局</t>
+    <t>全球暖化大骗局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E9%BB%AF%E5%8C%96</t>
@@ -1049,13 +1046,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AC%B0-%E5%8D%97%E6%96%B9%E6%8C%AF%E7%9B%AA%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>聖嬰-南方振盪現象</t>
+    <t>圣婴-南方振荡现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境保護</t>
+    <t>环境保护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
@@ -1067,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%81%BD</t>
   </si>
   <si>
-    <t>天災</t>
+    <t>天灾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -1085,37 +1082,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E9%9B%BB%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>輸電網路</t>
+    <t>输电网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E8%83%BD%E6%B8%9B%E7%A2%B3</t>
   </si>
   <si>
-    <t>節能減碳</t>
+    <t>节能减碳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E6%95%B4%E5%90%88%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>建築整合太陽能</t>
+    <t>建筑整合太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠建築</t>
+    <t>绿建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%8A%9B%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>風力發電廠</t>
+    <t>风力发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>發電廠</t>
+    <t>发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B%E8%BD%A6</t>
@@ -1127,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>電池電動車</t>
+    <t>电池电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E8%BD%A6</t>
@@ -1139,13 +1136,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E9%90%B5%E8%B7%AF%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力鐵路車輛</t>
+    <t>混合动力铁路车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E8%83%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>氫能車</t>
+    <t>氢能车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Portable_Document_Format</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E%E7%B6%B2</t>
   </si>
   <si>
-    <t>英國廣播公司新聞網</t>
+    <t>英国广播公司新闻网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%94%B5%E8%A7%86%E7%BD%91</t>
@@ -1247,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E6%A2%A8%E6%99%A8%E9%8B%92%E5%A0%B1</t>
   </si>
   <si>
-    <t>雪梨晨鋒報</t>
+    <t>雪梨晨锋报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E8%BF%9E%E7%BB%AD%E5%87%BA%E7%89%88%E7%89%A9%E5%8F%B7</t>
@@ -1259,19 +1256,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E7%89%A9%E4%BB%B6%E8%AD%98%E5%88%A5%E8%99%9F</t>
   </si>
   <si>
-    <t>數位物件識別號</t>
+    <t>数位物件识别号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B</t>
   </si>
   <si>
-    <t>劍橋</t>
+    <t>剑桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>劍橋大學出版社</t>
+    <t>剑桥大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A5%E6%B0%B4%E4%B8%96%E7%95%8C</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%97%A5%E4%B9%8B%E5%BE%8C</t>
   </si>
   <si>
-    <t>明日之後</t>
+    <t>明日之后</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%BE%E4%BB%A5%E5%BF%BD%E8%A7%86%E7%9A%84%E7%9C%9F%E7%9B%B8</t>
@@ -1295,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%BE%88%E7%BE%8E%E6%9C%89%E8%B3%B4%E4%BD%A0</t>
   </si>
   <si>
-    <t>地球很美有賴你</t>
+    <t>地球很美有赖你</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>2012 (電影)</t>
+    <t>2012 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9A%E6%98%A7%E5%B9%B4%E4%BB%A3</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%A4%A9%E5%8B%95%E5%9C%B0</t>
   </si>
   <si>
-    <t>冰天動地</t>
+    <t>冰天动地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TVB</t>
@@ -1331,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%B0%B4%E4%BE%86%E8%87%A8%E5%89%8D</t>
   </si>
   <si>
-    <t>洪水來臨前</t>
+    <t>洪水来临前</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%A5%A7%E7%B4%8D%E5%A4%9A%C2%B7%E7%8B%84%E5%8D%A1%E7%9A%AE%E6%AD%90</t>
   </si>
   <si>
-    <t>李奧納多·狄卡皮歐</t>
+    <t>李奥纳多·狄卡皮欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%C2%B12%E2%84%83</t>
@@ -1361,19 +1358,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%AE%8A%E6%9A%96</t>
   </si>
   <si>
-    <t>全球變暖</t>
+    <t>全球变暖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AE%E5%BA%A6%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>亮度溫度</t>
+    <t>亮度温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%95%88%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>有效溫度</t>
+    <t>有效温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%A2%B3</t>
@@ -1385,25 +1382,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%AE%8A%E6%9A%97</t>
   </si>
   <si>
-    <t>全球變暗</t>
+    <t>全球变暗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96%E6%BD%9B%E5%8B%A2</t>
   </si>
   <si>
-    <t>全球暖化潛勢</t>
+    <t>全球暖化潜势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BB%E5%B0%84%E9%A9%85%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>輻射驅動力</t>
+    <t>辐射驱动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>熱島效應</t>
+    <t>热岛效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%85%A7%E7%8E%87</t>
@@ -1427,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E9%B9%BD%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>溫鹽環流</t>
+    <t>温盐环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B0%94%E5%B0%BC%E8%AF%BA-%E5%8D%97%E6%96%B9%E6%8C%AF%E8%8D%A1%E7%8E%B0%E8%B1%A1</t>
@@ -1451,19 +1448,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%BC%A2%E6%A3%AE</t>
   </si>
   <si>
-    <t>詹姆斯·漢森</t>
+    <t>詹姆斯·汉森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>環境倫理</t>
+    <t>环境伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%A6%E5%AE%9A%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>否定氣候變化</t>
+    <t>否定气候变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96%E9%98%B4%E8%B0%8B%E8%AE%BA</t>
@@ -1475,13 +1472,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%82%BA%E7%A7%91%E5%AD%B8%E9%81%8A%E8%A1%8C</t>
   </si>
   <si>
-    <t>為科學遊行</t>
+    <t>为科学游行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E6%A1%86%E6%9E%B6%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>聯合國氣候變化框架公約</t>
+    <t>联合国气候变化框架公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%BA%E6%B0%A7%E4%BA%8B%E4%BB%B6</t>
@@ -1499,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E7%94%B2%E7%83%B7%E9%87%8B%E5%87%BA</t>
   </si>
   <si>
-    <t>北極甲烷釋出</t>
+    <t>北极甲烷释出</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B9%B3%E9%9D%A2%E4%B8%8A%E5%8D%87</t>
@@ -1523,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AD%E6%B0%A7%E5%B1%A4%E7%A0%B4%E6%B4%9E</t>
   </si>
   <si>
-    <t>臭氧層破洞</t>
+    <t>臭氧层破洞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0%E5%B9%B3%E6%B5%81%E5%B1%82%E4%BA%91</t>
@@ -1535,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%8E%A7%E6%BA%AB%E5%AE%A4%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>失控溫室效應</t>
+    <t>失控温室效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%B4%81%E5%8F%91%E5%B1%95%E6%9C%BA%E5%88%B6</t>
@@ -1565,13 +1562,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%94%B6%E9%9B%86%E5%8F%8A%E5%84%B2%E5%AD%98</t>
   </si>
   <si>
-    <t>碳收集及儲存</t>
+    <t>碳收集及储存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E7%A2%B3%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>低碳經濟</t>
+    <t>低碳经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%83%BD</t>
@@ -1583,13 +1580,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%96%AE%E7%94%9F%E6%B4%BB</t>
   </si>
   <si>
-    <t>簡單生活</t>
+    <t>简单生活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E5%8C%AF</t>
   </si>
   <si>
-    <t>碳匯</t>
+    <t>碳汇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E5%80%99%E5%B7%A5%E7%A8%8B</t>
@@ -1601,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%9C%B0%E5%BE%A9%E8%82%B2</t>
   </si>
   <si>
-    <t>林地復育</t>
+    <t>林地复育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E6%B7%A1%E5%8C%96</t>
@@ -2892,7 +2889,7 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
         <v>14</v>
@@ -2918,10 +2915,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2947,10 +2944,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2976,10 +2973,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3005,10 +3002,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3034,10 +3031,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3063,10 +3060,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3092,10 +3089,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3121,10 +3118,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3150,10 +3147,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3179,10 +3176,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3208,10 +3205,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3237,10 +3234,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3266,10 +3263,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -3295,10 +3292,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3324,10 +3321,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3353,10 +3350,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3382,10 +3379,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3411,10 +3408,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3440,10 +3437,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3469,10 +3466,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3498,10 +3495,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3527,10 +3524,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3556,10 +3553,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3585,10 +3582,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3614,10 +3611,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3643,10 +3640,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3672,10 +3669,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3701,10 +3698,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3730,10 +3727,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3759,10 +3756,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3788,10 +3785,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3846,10 +3843,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3875,10 +3872,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3904,10 +3901,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>10</v>
@@ -3933,10 +3930,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -3962,10 +3959,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>23</v>
@@ -3991,10 +3988,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4020,10 +4017,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4049,10 +4046,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -4078,10 +4075,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4107,10 +4104,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>16</v>
@@ -4136,10 +4133,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4165,10 +4162,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4194,10 +4191,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4223,10 +4220,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -4252,10 +4249,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4310,10 +4307,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4339,10 +4336,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4368,10 +4365,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>16</v>
@@ -4397,10 +4394,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4426,10 +4423,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4455,10 +4452,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4484,10 +4481,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4513,10 +4510,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4542,10 +4539,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4571,10 +4568,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4600,10 +4597,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4629,10 +4626,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4658,10 +4655,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4687,10 +4684,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4716,10 +4713,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4745,10 +4742,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -4774,10 +4771,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4803,10 +4800,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4832,10 +4829,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4861,10 +4858,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4890,10 +4887,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4919,10 +4916,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4948,10 +4945,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4977,10 +4974,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -5006,10 +5003,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>8</v>
@@ -5035,10 +5032,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5064,10 +5061,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5093,10 +5090,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5122,10 +5119,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5151,10 +5148,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5180,10 +5177,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5209,10 +5206,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5238,10 +5235,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>7</v>
@@ -5267,10 +5264,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5296,10 +5293,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5325,10 +5322,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5354,10 +5351,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5383,10 +5380,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5412,10 +5409,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5441,10 +5438,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5470,10 +5467,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5499,10 +5496,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5528,10 +5525,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5557,10 +5554,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5586,10 +5583,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5615,10 +5612,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -5644,10 +5641,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>5</v>
@@ -5673,10 +5670,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5702,10 +5699,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5731,10 +5728,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5760,10 +5757,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
         <v>257</v>
-      </c>
-      <c r="F131" t="s">
-        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5789,10 +5786,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" t="s">
         <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5818,10 +5815,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5847,10 +5844,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
-      </c>
-      <c r="F134" t="s">
-        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>5</v>
@@ -5876,10 +5873,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5905,10 +5902,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5934,10 +5931,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5963,10 +5960,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5992,10 +5989,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6021,10 +6018,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6050,10 +6047,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6079,10 +6076,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6108,10 +6105,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6137,10 +6134,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6166,10 +6163,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6195,10 +6192,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>6</v>
@@ -6224,10 +6221,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -6253,10 +6250,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6282,10 +6279,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6311,10 +6308,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6340,10 +6337,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6369,10 +6366,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6398,10 +6395,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6427,10 +6424,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6456,10 +6453,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6485,10 +6482,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>10</v>
@@ -6514,10 +6511,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6543,10 +6540,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6572,10 +6569,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6601,10 +6598,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6630,10 +6627,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6659,10 +6656,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6688,10 +6685,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6717,10 +6714,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6746,10 +6743,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6775,10 +6772,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6804,10 +6801,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6833,10 +6830,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" t="s">
         <v>331</v>
-      </c>
-      <c r="F168" t="s">
-        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6862,10 +6859,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
         <v>333</v>
-      </c>
-      <c r="F169" t="s">
-        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6891,10 +6888,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
         <v>335</v>
-      </c>
-      <c r="F170" t="s">
-        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6920,10 +6917,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
         <v>337</v>
-      </c>
-      <c r="F171" t="s">
-        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6949,10 +6946,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
         <v>339</v>
-      </c>
-      <c r="F172" t="s">
-        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6978,10 +6975,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>206</v>
+      </c>
+      <c r="F173" t="s">
         <v>207</v>
-      </c>
-      <c r="F173" t="s">
-        <v>208</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7007,10 +7004,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7036,10 +7033,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7094,10 +7091,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7123,10 +7120,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -7152,10 +7149,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7181,10 +7178,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7210,10 +7207,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7239,10 +7236,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7268,10 +7265,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7297,10 +7294,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7326,10 +7323,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7355,10 +7352,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7384,10 +7381,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7413,10 +7410,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7442,10 +7439,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7471,10 +7468,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -7500,10 +7497,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7529,10 +7526,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7558,10 +7555,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>20</v>
@@ -7587,10 +7584,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -7616,10 +7613,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7645,10 +7642,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -7674,10 +7671,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" t="s">
-        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>13</v>
@@ -7703,10 +7700,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
         <v>387</v>
-      </c>
-      <c r="F198" t="s">
-        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7732,10 +7729,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" t="s">
         <v>389</v>
-      </c>
-      <c r="F199" t="s">
-        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7761,10 +7758,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
         <v>391</v>
-      </c>
-      <c r="F200" t="s">
-        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7790,10 +7787,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>392</v>
+      </c>
+      <c r="F201" t="s">
         <v>393</v>
-      </c>
-      <c r="F201" t="s">
-        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7819,10 +7816,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202" t="s">
         <v>395</v>
-      </c>
-      <c r="F202" t="s">
-        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7848,10 +7845,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" t="s">
         <v>397</v>
-      </c>
-      <c r="F203" t="s">
-        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7877,10 +7874,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" t="s">
         <v>399</v>
-      </c>
-      <c r="F204" t="s">
-        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7906,10 +7903,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" t="s">
         <v>401</v>
-      </c>
-      <c r="F205" t="s">
-        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7935,10 +7932,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" t="s">
         <v>403</v>
-      </c>
-      <c r="F206" t="s">
-        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7964,10 +7961,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" t="s">
         <v>405</v>
-      </c>
-      <c r="F207" t="s">
-        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7993,10 +7990,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>406</v>
+      </c>
+      <c r="F208" t="s">
         <v>407</v>
-      </c>
-      <c r="F208" t="s">
-        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8022,10 +8019,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>408</v>
+      </c>
+      <c r="F209" t="s">
         <v>409</v>
-      </c>
-      <c r="F209" t="s">
-        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8051,10 +8048,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>410</v>
+      </c>
+      <c r="F210" t="s">
         <v>411</v>
-      </c>
-      <c r="F210" t="s">
-        <v>412</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8080,10 +8077,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>412</v>
+      </c>
+      <c r="F211" t="s">
         <v>413</v>
-      </c>
-      <c r="F211" t="s">
-        <v>414</v>
       </c>
       <c r="G211" t="n">
         <v>20</v>
@@ -8109,10 +8106,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>414</v>
+      </c>
+      <c r="F212" t="s">
         <v>415</v>
-      </c>
-      <c r="F212" t="s">
-        <v>416</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8138,10 +8135,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>416</v>
+      </c>
+      <c r="F213" t="s">
         <v>417</v>
-      </c>
-      <c r="F213" t="s">
-        <v>418</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8167,10 +8164,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>418</v>
+      </c>
+      <c r="F214" t="s">
         <v>419</v>
-      </c>
-      <c r="F214" t="s">
-        <v>420</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8196,10 +8193,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>420</v>
+      </c>
+      <c r="F215" t="s">
         <v>421</v>
-      </c>
-      <c r="F215" t="s">
-        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8225,10 +8222,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>422</v>
+      </c>
+      <c r="F216" t="s">
         <v>423</v>
-      </c>
-      <c r="F216" t="s">
-        <v>424</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8254,10 +8251,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>424</v>
+      </c>
+      <c r="F217" t="s">
         <v>425</v>
-      </c>
-      <c r="F217" t="s">
-        <v>426</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8283,10 +8280,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>426</v>
+      </c>
+      <c r="F218" t="s">
         <v>427</v>
-      </c>
-      <c r="F218" t="s">
-        <v>428</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8312,10 +8309,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>428</v>
+      </c>
+      <c r="F219" t="s">
         <v>429</v>
-      </c>
-      <c r="F219" t="s">
-        <v>430</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8341,10 +8338,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>430</v>
+      </c>
+      <c r="F220" t="s">
         <v>431</v>
-      </c>
-      <c r="F220" t="s">
-        <v>432</v>
       </c>
       <c r="G220" t="n">
         <v>5</v>
@@ -8370,10 +8367,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>432</v>
+      </c>
+      <c r="F221" t="s">
         <v>433</v>
-      </c>
-      <c r="F221" t="s">
-        <v>434</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8399,10 +8396,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>434</v>
+      </c>
+      <c r="F222" t="s">
         <v>435</v>
-      </c>
-      <c r="F222" t="s">
-        <v>436</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8428,10 +8425,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>436</v>
+      </c>
+      <c r="F223" t="s">
         <v>437</v>
-      </c>
-      <c r="F223" t="s">
-        <v>438</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8457,10 +8454,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>438</v>
+      </c>
+      <c r="F224" t="s">
         <v>439</v>
-      </c>
-      <c r="F224" t="s">
-        <v>440</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8486,10 +8483,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>440</v>
+      </c>
+      <c r="F225" t="s">
         <v>441</v>
-      </c>
-      <c r="F225" t="s">
-        <v>442</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8515,10 +8512,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>442</v>
+      </c>
+      <c r="F226" t="s">
         <v>443</v>
-      </c>
-      <c r="F226" t="s">
-        <v>444</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8544,10 +8541,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>444</v>
+      </c>
+      <c r="F227" t="s">
         <v>445</v>
-      </c>
-      <c r="F227" t="s">
-        <v>446</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8573,10 +8570,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>446</v>
+      </c>
+      <c r="F228" t="s">
         <v>447</v>
-      </c>
-      <c r="F228" t="s">
-        <v>448</v>
       </c>
       <c r="G228" t="n">
         <v>9</v>
@@ -8602,10 +8599,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>448</v>
+      </c>
+      <c r="F229" t="s">
         <v>449</v>
-      </c>
-      <c r="F229" t="s">
-        <v>450</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8631,10 +8628,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>450</v>
+      </c>
+      <c r="F230" t="s">
         <v>451</v>
-      </c>
-      <c r="F230" t="s">
-        <v>452</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8660,10 +8657,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>452</v>
+      </c>
+      <c r="F231" t="s">
         <v>453</v>
-      </c>
-      <c r="F231" t="s">
-        <v>454</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8689,10 +8686,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>454</v>
+      </c>
+      <c r="F232" t="s">
         <v>455</v>
-      </c>
-      <c r="F232" t="s">
-        <v>456</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8718,10 +8715,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>456</v>
+      </c>
+      <c r="F233" t="s">
         <v>457</v>
-      </c>
-      <c r="F233" t="s">
-        <v>458</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8747,10 +8744,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>458</v>
+      </c>
+      <c r="F234" t="s">
         <v>459</v>
-      </c>
-      <c r="F234" t="s">
-        <v>460</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8776,10 +8773,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>460</v>
+      </c>
+      <c r="F235" t="s">
         <v>461</v>
-      </c>
-      <c r="F235" t="s">
-        <v>462</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -8805,10 +8802,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>462</v>
+      </c>
+      <c r="F236" t="s">
         <v>463</v>
-      </c>
-      <c r="F236" t="s">
-        <v>464</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8834,10 +8831,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>464</v>
+      </c>
+      <c r="F237" t="s">
         <v>465</v>
-      </c>
-      <c r="F237" t="s">
-        <v>466</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8863,10 +8860,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>466</v>
+      </c>
+      <c r="F238" t="s">
         <v>467</v>
-      </c>
-      <c r="F238" t="s">
-        <v>468</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8892,10 +8889,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>126</v>
+      </c>
+      <c r="F239" t="s">
         <v>127</v>
-      </c>
-      <c r="F239" t="s">
-        <v>128</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8921,10 +8918,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>468</v>
+      </c>
+      <c r="F240" t="s">
         <v>469</v>
-      </c>
-      <c r="F240" t="s">
-        <v>470</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -8950,10 +8947,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>470</v>
+      </c>
+      <c r="F241" t="s">
         <v>471</v>
-      </c>
-      <c r="F241" t="s">
-        <v>472</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8979,10 +8976,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>472</v>
+      </c>
+      <c r="F242" t="s">
         <v>473</v>
-      </c>
-      <c r="F242" t="s">
-        <v>474</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9008,10 +9005,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>324</v>
+      </c>
+      <c r="F243" t="s">
         <v>325</v>
-      </c>
-      <c r="F243" t="s">
-        <v>326</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9037,10 +9034,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>474</v>
+      </c>
+      <c r="F244" t="s">
         <v>475</v>
-      </c>
-      <c r="F244" t="s">
-        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9066,10 +9063,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>476</v>
+      </c>
+      <c r="F245" t="s">
         <v>477</v>
-      </c>
-      <c r="F245" t="s">
-        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9095,10 +9092,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>478</v>
+      </c>
+      <c r="F246" t="s">
         <v>479</v>
-      </c>
-      <c r="F246" t="s">
-        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9124,10 +9121,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>480</v>
+      </c>
+      <c r="F247" t="s">
         <v>481</v>
-      </c>
-      <c r="F247" t="s">
-        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9153,10 +9150,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>482</v>
+      </c>
+      <c r="F248" t="s">
         <v>483</v>
-      </c>
-      <c r="F248" t="s">
-        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9182,10 +9179,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>484</v>
+      </c>
+      <c r="F249" t="s">
         <v>485</v>
-      </c>
-      <c r="F249" t="s">
-        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9211,10 +9208,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>486</v>
+      </c>
+      <c r="F250" t="s">
         <v>487</v>
-      </c>
-      <c r="F250" t="s">
-        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9240,10 +9237,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>488</v>
+      </c>
+      <c r="F251" t="s">
         <v>489</v>
-      </c>
-      <c r="F251" t="s">
-        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9269,10 +9266,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>490</v>
+      </c>
+      <c r="F252" t="s">
         <v>491</v>
-      </c>
-      <c r="F252" t="s">
-        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9298,10 +9295,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>492</v>
+      </c>
+      <c r="F253" t="s">
         <v>493</v>
-      </c>
-      <c r="F253" t="s">
-        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9327,10 +9324,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>494</v>
+      </c>
+      <c r="F254" t="s">
         <v>495</v>
-      </c>
-      <c r="F254" t="s">
-        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>5</v>
@@ -9356,10 +9353,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>496</v>
+      </c>
+      <c r="F255" t="s">
         <v>497</v>
-      </c>
-      <c r="F255" t="s">
-        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9385,10 +9382,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>498</v>
+      </c>
+      <c r="F256" t="s">
         <v>499</v>
-      </c>
-      <c r="F256" t="s">
-        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9414,10 +9411,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>500</v>
+      </c>
+      <c r="F257" t="s">
         <v>501</v>
-      </c>
-      <c r="F257" t="s">
-        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9443,10 +9440,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>502</v>
+      </c>
+      <c r="F258" t="s">
         <v>503</v>
-      </c>
-      <c r="F258" t="s">
-        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9472,10 +9469,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>504</v>
+      </c>
+      <c r="F259" t="s">
         <v>505</v>
-      </c>
-      <c r="F259" t="s">
-        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9501,10 +9498,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>506</v>
+      </c>
+      <c r="F260" t="s">
         <v>507</v>
-      </c>
-      <c r="F260" t="s">
-        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9530,10 +9527,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>332</v>
+      </c>
+      <c r="F261" t="s">
         <v>333</v>
-      </c>
-      <c r="F261" t="s">
-        <v>334</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9559,10 +9556,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>508</v>
+      </c>
+      <c r="F262" t="s">
         <v>509</v>
-      </c>
-      <c r="F262" t="s">
-        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9588,10 +9585,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>336</v>
+      </c>
+      <c r="F263" t="s">
         <v>337</v>
-      </c>
-      <c r="F263" t="s">
-        <v>338</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9617,10 +9614,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>510</v>
+      </c>
+      <c r="F264" t="s">
         <v>511</v>
-      </c>
-      <c r="F264" t="s">
-        <v>512</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9646,10 +9643,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>512</v>
+      </c>
+      <c r="F265" t="s">
         <v>513</v>
-      </c>
-      <c r="F265" t="s">
-        <v>514</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9675,10 +9672,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>514</v>
+      </c>
+      <c r="F266" t="s">
         <v>515</v>
-      </c>
-      <c r="F266" t="s">
-        <v>516</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9704,10 +9701,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>516</v>
+      </c>
+      <c r="F267" t="s">
         <v>517</v>
-      </c>
-      <c r="F267" t="s">
-        <v>518</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9733,10 +9730,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>518</v>
+      </c>
+      <c r="F268" t="s">
         <v>519</v>
-      </c>
-      <c r="F268" t="s">
-        <v>520</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9762,10 +9759,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>520</v>
+      </c>
+      <c r="F269" t="s">
         <v>521</v>
-      </c>
-      <c r="F269" t="s">
-        <v>522</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9791,10 +9788,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>522</v>
+      </c>
+      <c r="F270" t="s">
         <v>523</v>
-      </c>
-      <c r="F270" t="s">
-        <v>524</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9820,10 +9817,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>524</v>
+      </c>
+      <c r="F271" t="s">
         <v>525</v>
-      </c>
-      <c r="F271" t="s">
-        <v>526</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9849,10 +9846,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>526</v>
+      </c>
+      <c r="F272" t="s">
         <v>527</v>
-      </c>
-      <c r="F272" t="s">
-        <v>528</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9878,10 +9875,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>528</v>
+      </c>
+      <c r="F273" t="s">
         <v>529</v>
-      </c>
-      <c r="F273" t="s">
-        <v>530</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9907,10 +9904,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>530</v>
+      </c>
+      <c r="F274" t="s">
         <v>531</v>
-      </c>
-      <c r="F274" t="s">
-        <v>532</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9936,10 +9933,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>532</v>
+      </c>
+      <c r="F275" t="s">
         <v>533</v>
-      </c>
-      <c r="F275" t="s">
-        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>21</v>
@@ -9965,10 +9962,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F276" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
